--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School shit\Prog 4\TrashTheCache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F27CEFB9-1654-41B2-BF5C-2DA77D35BD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1D552-F41D-4B8C-9D43-7BC6F376965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C379E733-F2B5-4C87-8588-E669B7BFCF94}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{C379E733-F2B5-4C87-8588-E669B7BFCF94}"/>
   </bookViews>
   <sheets>
     <sheet name="Ints" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>time in ms</t>
-  </si>
-  <si>
     <t>nr of steps</t>
   </si>
   <si>
-    <t>time in ms (GameObjects)</t>
+    <t>time in microseconds (GameObjectsAlt)</t>
   </si>
   <si>
-    <t>time in ms (GameObjectsAlt)</t>
+    <t>time in microseconds (GameObjects)</t>
+  </si>
+  <si>
+    <t>time in microseconds</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.307741393484013E-2"/>
+          <c:y val="0.18613595432531929"/>
+          <c:w val="0.88529657406859241"/>
+          <c:h val="0.73338526381473845"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -157,7 +167,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time in ms</c:v>
+            <c:strRef>
+              <c:f>Ints!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time in microseconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -220,37 +238,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1223</c:v>
+                  <c:v>10546.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>962</c:v>
+                  <c:v>8254.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>920</c:v>
+                  <c:v>7274.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>871</c:v>
+                  <c:v>6840.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869</c:v>
+                  <c:v>6331.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>659</c:v>
+                  <c:v>4778.3900000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>304</c:v>
+                  <c:v>2265.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152</c:v>
+                  <c:v>1093.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>579.66700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>323.61099999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>231.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,7 +475,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>time in ms (GameObjects)</c:v>
+            <c:strRef>
+              <c:f>Gameobjects!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time in microseconds (GameObjects)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -520,37 +546,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1223</c:v>
+                  <c:v>10546.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>962</c:v>
+                  <c:v>8254.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>920</c:v>
+                  <c:v>7274.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>871</c:v>
+                  <c:v>6840.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869</c:v>
+                  <c:v>6331.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>659</c:v>
+                  <c:v>4778.3900000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>304</c:v>
+                  <c:v>2265.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152</c:v>
+                  <c:v>1093.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>579.66700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>323.61099999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>231.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,7 +592,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>time in ms (GameObjectsAlt)</c:v>
+            <c:strRef>
+              <c:f>Gameobjects!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time in microseconds (GameObjectsAlt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -587,37 +621,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>277</c:v>
+                  <c:v>24979.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>265</c:v>
+                  <c:v>23653.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252</c:v>
+                  <c:v>23099.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177</c:v>
+                  <c:v>16901.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>8154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>3792</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>1973.39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>1262.6099999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>1039.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>436.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>142.333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,10 +706,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -731,10 +762,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -787,7 +815,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1916,16 +1948,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1957,16 +1989,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2296,20 +2328,21 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1223</v>
+        <v>10546.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>962</v>
+        <v>8254.39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>920</v>
+        <v>7274.22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>871</v>
+        <v>6840.89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>869</v>
+        <v>6331.61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +2390,7 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>659</v>
+        <v>4778.3900000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +2398,7 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>304</v>
+        <v>2265.61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +2406,7 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>152</v>
+        <v>1093.56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +2414,7 @@
         <v>256</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>579.66700000000003</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2422,7 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>323.61099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2430,7 @@
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>231.5</v>
       </c>
     </row>
   </sheetData>
@@ -2411,24 +2444,25 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1223</v>
+        <v>91049.7</v>
       </c>
       <c r="C2">
-        <v>277</v>
+        <v>24979.599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,10 +2481,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>962</v>
+        <v>67290.600000000006</v>
       </c>
       <c r="C3">
-        <v>265</v>
+        <v>23653.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>920</v>
+        <v>31172.9</v>
       </c>
       <c r="C4">
-        <v>252</v>
+        <v>23099.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,10 +2503,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>871</v>
+        <v>15874.2</v>
       </c>
       <c r="C5">
-        <v>177</v>
+        <v>16901.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,10 +2514,10 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>869</v>
+        <v>8299.33</v>
       </c>
       <c r="C6">
-        <v>74</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,10 +2525,10 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>659</v>
+        <v>4676.72</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2502,10 +2536,10 @@
         <v>64</v>
       </c>
       <c r="B8">
-        <v>304</v>
+        <v>2071.83</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>1973.39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B9">
-        <v>152</v>
+        <v>1071.06</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>1262.6099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2524,10 +2558,10 @@
         <v>256</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>524.16700000000003</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>1039.22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,10 +2569,10 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>303.72199999999998</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>436.66699999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2546,10 +2580,10 @@
         <v>1024</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>142.333</v>
       </c>
     </row>
   </sheetData>
